--- a/Buyer hub/Outlets/Manual testcases/Outlets - Integartion testcases.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets - Integartion testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581349FF-8F76-4DB0-B171-495E69A38E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757DBCE-43D3-4CF7-9673-BE718977A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>SL. No</t>
   </si>
@@ -223,6 +223,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Abacus POS connected and Configure"</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -235,25 +251,13 @@
       </rPr>
       <t>Action-&gt;Manage Integration</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Abacus POS connected and Configure"</t>
-    </r>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -264,15 +268,49 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Action-&gt;Manage Integration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
+      <t>&gt; Configure</t>
+    </r>
+  </si>
+  <si>
+    <t>If we click the 'Configure'  the page goes to Abacus POS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select particular Outlet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown, Before it should have to be enabled from Backend support                              *If it is not connected go to companies &gt; Actions &gt; Manage integration</t>
+    </r>
+  </si>
+  <si>
+    <t>Configure &gt; Data mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we click Cancel the page redirected to Integration page </t>
+  </si>
+  <si>
+    <t>It gets displayed the Integration page</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -283,43 +321,33 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>&gt; Configure</t>
-    </r>
-  </si>
-  <si>
-    <t>If we click the 'Configure'  the page goes to Abacus POS</t>
-  </si>
-  <si>
-    <t>It displayed the "Data mapping "</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select particular Outlet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown, Before it should have to be enabled from Backend support                              *If it is not connected go to companies &gt; Actions &gt; Manage integration</t>
-    </r>
-  </si>
-  <si>
-    <t>Configure &gt; Data mapping</t>
+      <t>Action-&gt;Manage Integration &gt; Abacus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> POS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Data mapping "</t>
+    </r>
   </si>
   <si>
     <r>
@@ -334,30 +362,103 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Search by name, POS category, Mapping status, Name, Map to Under dropdown, Select item/recipe/sub-recipe or create new under dropdown, Quantity, Cancel and Save"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select the POS mapping and Save the toastr will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'POS mapping Updated successfully'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">If we click Cancel the page redirected to Integration page </t>
-  </si>
-  <si>
-    <t>It gets displayed the Integration page</t>
+      <t>"Search by name, POS category dropdown, Mapping status dropdown are (Mapped and Unmapped)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and 2 tabs are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Products and Product variants"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <t>In products Name below we can see the which product is linked then user can map to Item/recipe/sub-recipe and enter a mapping qunatity</t>
+  </si>
+  <si>
+    <t>Configure &gt; Data mapping &gt; Products</t>
+  </si>
+  <si>
+    <t>Configure &gt; Data mapping &gt; Products variants</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : "Name, Map to Under dropdown, Select item/recipe/sub-recipe or create new under dropdown, Quantity, Cancel and Save"                                           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some variant options are individaual per linked product,click View, can see the pop up and Save and its gets displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ProductVariant mapping created successfully"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Product variants :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Name, Variant uses Under dropdown, Quantity, Cancel and Save" below Name products is hyper linked ,click and view </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -501,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -525,9 +626,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +917,7 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.140625" customWidth="1"/>
     <col min="6" max="6" width="49.5703125" customWidth="1"/>
   </cols>
@@ -904,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -927,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -950,19 +1048,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -973,15 +1071,61 @@
         <v>8</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Buyer hub/Outlets/Manual testcases/Outlets - Integartion testcases.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlets - Integartion testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757DBCE-43D3-4CF7-9673-BE718977A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDB57D-AB49-4EAE-B298-6B357F56F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>It gets displayed as expected</t>
   </si>
   <si>
-    <t>In products Name below we can see the which product is linked then user can map to Item/recipe/sub-recipe and enter a mapping qunatity</t>
-  </si>
-  <si>
     <t>Configure &gt; Data mapping &gt; Products</t>
   </si>
   <si>
@@ -423,6 +420,29 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Product variants :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Name, Variant uses Under dropdown, Quantity, Cancel and Save" below Name products is hyper linked ,click and view </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Some variant options are individaual per linked product,click View, can see the pop up and Save and its gets displayed </t>
     </r>
     <r>
@@ -436,29 +456,19 @@
       </rPr>
       <t>"ProductVariant mapping created successfully"</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.Product variants :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Name, Variant uses Under dropdown, Quantity, Cancel and Save" below Name products is hyper linked ,click and view </t>
-    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>In products Name below we can see the which product is linked then user can map to Item/recipe/sub-recipe and enter a mapping qunatity.</t>
   </si>
 </sst>
 </file>
@@ -908,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1094,10 +1104,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>31</v>
